--- a/biology/Botanique/Caulacanthaceae/Caulacanthaceae.xlsx
+++ b/biology/Botanique/Caulacanthaceae/Caulacanthaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Caulacanthaceae sont une famille d'algues rouges de l'ordre des Gigartinales. 
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (27 août 2012)[1] et World Register of Marine Species                               (27 août 2012)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (27 août 2012) et World Register of Marine Species                               (27 août 2012) :
 genre Catenella Greville, 1830
 genre Catenellocolax Weber-van Bosse, 1928
 genre Caulacanthus Kützing, 1843
@@ -522,7 +536,7 @@
 genre Montemaria A.B.Joly &amp; Alveal, 1970
 genre Sterrocladia F.Schmitz, 1893
 genre Taylorophycus E.Y.Dawson, 1961
-Selon Catalogue of Life                                   (11 décembre 2020)[3] :
+Selon Catalogue of Life                                   (11 décembre 2020) :
 genre Catenella Greville, 1830
 genre Catenellocolax Weber-van Bosse, 1928
 genre Caulacanthus Kützing, 1843
@@ -531,7 +545,7 @@
 genre Montemaria A.B. Joly &amp; K. Alveal, 1970
 genre Sterrocladia F.Schmitz, 1893
 genre Taylorophycus E.Y. Dawson, 1961
-Selon NCBI  (27 août 2012)[4] :
+Selon NCBI  (27 août 2012) :
 genre Catenella
 Catenella caespitosa
 Catenella nipae
